--- a/doc/Gateway_location_120321.xlsx
+++ b/doc/Gateway_location_120321.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\dump\St.John\beacon\Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\test-dev\hsc_db\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD5DF0B-C436-4B5B-BC95-AC78B42A5626}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675A62BE-4E37-45A9-B248-F2C310C791E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16500" yWindow="-16410" windowWidth="29040" windowHeight="16440" xr2:uid="{C9107920-6765-4860-A6B6-5915B8B1FEDF}"/>
+    <workbookView xWindow="-12300" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{C9107920-6765-4860-A6B6-5915B8B1FEDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Level1" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="640">
   <si>
     <t>Type</t>
   </si>
@@ -1511,9 +1511,6 @@
     <t>L5-CR-14</t>
   </si>
   <si>
-    <t>L4-CA-05</t>
-  </si>
-  <si>
     <t>Laundry</t>
   </si>
   <si>
@@ -1574,9 +1571,6 @@
     <t>T15</t>
   </si>
   <si>
-    <t>L2-RM-15</t>
-  </si>
-  <si>
     <t>CA28</t>
   </si>
   <si>
@@ -1827,6 +1821,144 @@
   </si>
   <si>
     <t>L1-CA-37</t>
+  </si>
+  <si>
+    <t># in db</t>
+  </si>
+  <si>
+    <t>L2-RT-15</t>
+  </si>
+  <si>
+    <t>42, 43</t>
+  </si>
+  <si>
+    <t>48, 49</t>
+  </si>
+  <si>
+    <t>54, 55</t>
+  </si>
+  <si>
+    <t>60, 61</t>
+  </si>
+  <si>
+    <t>66, 67</t>
+  </si>
+  <si>
+    <t>72, 73</t>
+  </si>
+  <si>
+    <t>L5-CA-01</t>
+  </si>
+  <si>
+    <t>L5-CA-02</t>
+  </si>
+  <si>
+    <t>L5-CA-03</t>
+  </si>
+  <si>
+    <t>L5-CA-04</t>
+  </si>
+  <si>
+    <t>L5-CA-05</t>
+  </si>
+  <si>
+    <t>122, 123</t>
+  </si>
+  <si>
+    <t>128, 129</t>
+  </si>
+  <si>
+    <t>134, 135</t>
+  </si>
+  <si>
+    <t>140, 141</t>
+  </si>
+  <si>
+    <t>146, 147</t>
+  </si>
+  <si>
+    <t>152, 153</t>
+  </si>
+  <si>
+    <t>158, 159</t>
+  </si>
+  <si>
+    <t>164, 165</t>
+  </si>
+  <si>
+    <t>170, 171</t>
+  </si>
+  <si>
+    <t>176, 177</t>
+  </si>
+  <si>
+    <t>182, 183</t>
+  </si>
+  <si>
+    <t>188, 189</t>
+  </si>
+  <si>
+    <t>213, 214</t>
+  </si>
+  <si>
+    <t>219, 220</t>
+  </si>
+  <si>
+    <t>225, 226</t>
+  </si>
+  <si>
+    <t>231, 232</t>
+  </si>
+  <si>
+    <t>237, 238</t>
+  </si>
+  <si>
+    <t>243, 244</t>
+  </si>
+  <si>
+    <t>249, 250</t>
+  </si>
+  <si>
+    <t>255, 256</t>
+  </si>
+  <si>
+    <t>261, 262</t>
+  </si>
+  <si>
+    <t>267, 268</t>
+  </si>
+  <si>
+    <t>273, 274</t>
+  </si>
+  <si>
+    <t>279, 280</t>
+  </si>
+  <si>
+    <t>305, 306</t>
+  </si>
+  <si>
+    <t>311, 312</t>
+  </si>
+  <si>
+    <t>317, 318</t>
+  </si>
+  <si>
+    <t>323, 324</t>
+  </si>
+  <si>
+    <t>329, 330</t>
+  </si>
+  <si>
+    <t>335, 336</t>
+  </si>
+  <si>
+    <t>341, 342</t>
+  </si>
+  <si>
+    <t>347, 348</t>
+  </si>
+  <si>
+    <t>353, 354</t>
   </si>
 </sst>
 </file>
@@ -1910,7 +2042,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1996,11 +2128,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2036,14 +2177,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2051,11 +2198,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2066,18 +2210,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2400,8 +2556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17CF8E70-9C76-4B35-B52F-8FCA88AE7CD1}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2412,554 +2568,679 @@
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>525</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="E4" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="E5" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="E6" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="E7" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="C8" s="23"/>
+      <c r="D8" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="E8" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>527</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B9" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="E9" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="7" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B10" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="E10" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="7" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B11" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="E11" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="7" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="B12" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="E12" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>538</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="E13" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="E14" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="E15" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="7" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="B16" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>548</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="E16" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="7" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="B17" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="E17" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="7" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="B18" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="E18" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="7" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="B19" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>556</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="E19" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="7" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="B20" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>564</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="E20" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="7" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="B21" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="E21" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="7" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>540</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="7" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="7" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="B22" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>567</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="E22" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>550</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="B23" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>568</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="E23" s="7">
+        <v>22</v>
+      </c>
+      <c r="K23" s="21"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="7" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="7" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>558</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>560</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>561</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>566</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>566</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="K23" s="33"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="C24" s="17" t="s">
+      <c r="B24" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="C24" s="22" t="s">
         <v>569</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>572</v>
       </c>
+      <c r="E24" s="7">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>570</v>
+      <c r="B25" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>573</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
+      </c>
+      <c r="E25" s="7">
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>571</v>
-      </c>
+      <c r="B26" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="C26" s="37"/>
       <c r="D26" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
+      </c>
+      <c r="E26" s="7">
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>575</v>
-      </c>
+      <c r="B27" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="C27" s="38"/>
       <c r="D27" s="7" t="s">
         <v>576</v>
       </c>
+      <c r="E27" s="7">
+        <v>26</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="C28" s="34"/>
+      <c r="B28" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>302</v>
+      </c>
       <c r="D28" s="7" t="s">
         <v>577</v>
       </c>
+      <c r="E28" s="7">
+        <v>27</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="C29" s="34"/>
+      <c r="B29" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="C29" s="23"/>
       <c r="D29" s="7" t="s">
         <v>578</v>
       </c>
+      <c r="E29" s="7">
+        <v>28</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>302</v>
-      </c>
+      <c r="B30" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="C30" s="23"/>
       <c r="D30" s="7" t="s">
         <v>579</v>
       </c>
+      <c r="E30" s="7">
+        <v>29</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="C31" s="34"/>
+      <c r="C31" s="23"/>
       <c r="D31" s="7" t="s">
         <v>580</v>
       </c>
+      <c r="E31" s="7">
+        <v>30</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="C32" s="34"/>
+      <c r="C32" s="23"/>
       <c r="D32" s="7" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="E32" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="9" t="s">
         <v>514</v>
       </c>
-      <c r="C33" s="34"/>
+      <c r="C33" s="23"/>
       <c r="D33" s="7" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="E33" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="C34" s="34"/>
+      <c r="C34" s="22" t="s">
+        <v>585</v>
+      </c>
       <c r="D34" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="E34" s="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>587</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="E35" s="7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="C36" s="23"/>
+      <c r="D36" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="E36" s="7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="C37" s="23"/>
+      <c r="D37" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="E37" s="7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="C38" s="23"/>
+      <c r="D38" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="E38" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>558</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="E39" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>559</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="E40" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="E41" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="23"/>
+      <c r="D42" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="E42" s="7">
         <v>41</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="C35" s="34"/>
-      <c r="D35" s="7" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C36" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="7" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>587</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>589</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="C40" s="34"/>
-      <c r="D40" s="7" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>590</v>
-      </c>
-      <c r="C41" s="34"/>
-      <c r="D41" s="7" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="C42" s="34"/>
-      <c r="D42" s="7" t="s">
-        <v>595</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C39:C42"/>
+  <mergeCells count="8">
+    <mergeCell ref="C41:C42"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="C2:C12"/>
     <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C30:C35"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="C20:C21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2970,8 +3251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F63848-482F-4C4D-813C-FDEB5D93978D}">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2992,10 +3273,10 @@
       <c r="C1" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="32"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -3004,7 +3285,7 @@
       <c r="B2" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="28" t="s">
         <v>154</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -3013,6 +3294,9 @@
       <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
+      <c r="F2" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -3021,11 +3305,14 @@
       <c r="B3" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="7"/>
+      <c r="F3">
+        <v>44</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -3034,11 +3321,14 @@
       <c r="B4" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="7"/>
+      <c r="F4">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
@@ -3047,11 +3337,14 @@
       <c r="B5" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="22"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="7"/>
+      <c r="F5">
+        <v>46</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3061,11 +3354,14 @@
       <c r="B6" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="22"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="7"/>
+      <c r="F6">
+        <v>47</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
@@ -3074,7 +3370,7 @@
       <c r="B7" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="28" t="s">
         <v>157</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -3083,6 +3379,9 @@
       <c r="E7" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="F7" t="s">
+        <v>597</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
@@ -3091,11 +3390,14 @@
       <c r="B8" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="22"/>
+      <c r="C8" s="28"/>
       <c r="D8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="7"/>
+      <c r="F8">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -3104,11 +3406,14 @@
       <c r="B9" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="22"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="7"/>
+      <c r="F9">
+        <v>51</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -3117,11 +3422,14 @@
       <c r="B10" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="22"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="7"/>
+      <c r="F10">
+        <v>52</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
@@ -3130,11 +3438,14 @@
       <c r="B11" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="22"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="7"/>
+      <c r="F11">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
@@ -3143,7 +3454,7 @@
       <c r="B12" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="28" t="s">
         <v>166</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -3152,6 +3463,9 @@
       <c r="E12" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="F12" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
@@ -3160,11 +3474,14 @@
       <c r="B13" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="22"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="7"/>
+      <c r="F13">
+        <v>56</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
@@ -3173,11 +3490,14 @@
       <c r="B14" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="22"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="7"/>
+      <c r="F14">
+        <v>57</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
@@ -3186,11 +3506,14 @@
       <c r="B15" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="22"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E15" s="7"/>
+      <c r="F15">
+        <v>58</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
@@ -3199,20 +3522,23 @@
       <c r="B16" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="22"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="28" t="s">
         <v>222</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -3221,241 +3547,295 @@
       <c r="E17" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="22"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="22"/>
+      <c r="C19" s="28"/>
       <c r="D19" s="7" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="22"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C21" s="22"/>
+      <c r="C21" s="28"/>
       <c r="D21" s="7" t="s">
         <v>31</v>
       </c>
       <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="28" t="s">
         <v>223</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+      <c r="F22" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="22"/>
+      <c r="C23" s="28"/>
       <c r="D23" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="22"/>
+      <c r="C24" s="28"/>
       <c r="D24" s="7" t="s">
         <v>34</v>
       </c>
       <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="22"/>
+      <c r="C25" s="28"/>
       <c r="D25" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C26" s="22"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="28" t="s">
         <v>224</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+      <c r="F27" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="22"/>
+      <c r="C28" s="28"/>
       <c r="D28" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="22"/>
+      <c r="C29" s="28"/>
       <c r="D29" s="7" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="22"/>
+      <c r="C30" s="28"/>
       <c r="D30" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C31" s="22"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>499</v>
-      </c>
-      <c r="C32" s="25" t="s">
+        <v>498</v>
+      </c>
+      <c r="C32" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>500</v>
-      </c>
-      <c r="C33" s="25"/>
+        <v>499</v>
+      </c>
+      <c r="C33" s="27"/>
       <c r="D33" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>501</v>
-      </c>
-      <c r="C34" s="25"/>
+        <v>500</v>
+      </c>
+      <c r="C34" s="27"/>
       <c r="D34" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C35" s="17" t="s">
         <v>61</v>
@@ -3463,13 +3843,16 @@
       <c r="D35" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>46</v>
@@ -3477,13 +3860,16 @@
       <c r="D36" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>47</v>
@@ -3491,13 +3877,16 @@
       <c r="D37" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>50</v>
@@ -3505,477 +3894,585 @@
       <c r="D38" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>52</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+      <c r="F39">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="26" t="s">
         <v>53</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C41" s="24"/>
+      <c r="C41" s="26"/>
       <c r="D41" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+      <c r="F42">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="26" t="s">
         <v>57</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="24"/>
+      <c r="C44" s="26"/>
       <c r="D44" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>60</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+      <c r="F45">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>512</v>
-      </c>
-      <c r="C46" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="C46" s="25" t="s">
         <v>63</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="C47" s="21"/>
+        <v>511</v>
+      </c>
+      <c r="C47" s="25"/>
       <c r="D47" s="7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>514</v>
-      </c>
-      <c r="C48" s="21"/>
+        <v>512</v>
+      </c>
+      <c r="C48" s="25"/>
       <c r="D48" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>515</v>
-      </c>
-      <c r="C49" s="21"/>
+        <v>513</v>
+      </c>
+      <c r="C49" s="25"/>
       <c r="D49" s="7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>516</v>
-      </c>
-      <c r="C50" s="28" t="s">
+        <v>514</v>
+      </c>
+      <c r="C50" s="29" t="s">
         <v>68</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>517</v>
-      </c>
-      <c r="C51" s="29"/>
+        <v>515</v>
+      </c>
+      <c r="C51" s="30"/>
       <c r="D51" s="7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>518</v>
-      </c>
-      <c r="C52" s="29"/>
+        <v>516</v>
+      </c>
+      <c r="C52" s="30"/>
       <c r="D52" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>519</v>
-      </c>
-      <c r="C53" s="30"/>
+        <v>517</v>
+      </c>
+      <c r="C53" s="31"/>
       <c r="D53" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="25" t="s">
         <v>73</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="C55" s="21"/>
+      <c r="C55" s="25"/>
       <c r="D55" s="7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="C56" s="21"/>
+      <c r="C56" s="25"/>
       <c r="D56" s="7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C57" s="21"/>
+      <c r="C57" s="25"/>
       <c r="D57" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C58" s="21"/>
+      <c r="C58" s="25"/>
       <c r="D58" s="7" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B59" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="C59" s="21"/>
+      <c r="C59" s="25"/>
       <c r="D59" s="7" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="C60" s="21"/>
+      <c r="C60" s="25"/>
       <c r="D60" s="7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B61" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="C61" s="21"/>
+      <c r="C61" s="25"/>
       <c r="D61" s="7" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B62" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="C62" s="21"/>
+      <c r="C62" s="25"/>
       <c r="D62" s="7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B63" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C63" s="21"/>
+      <c r="C63" s="25"/>
       <c r="D63" s="7" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="C64" s="21"/>
+      <c r="C64" s="25"/>
       <c r="D64" s="7" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C65" s="21"/>
+      <c r="C65" s="25"/>
       <c r="D65" s="7" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="C66" s="21"/>
+      <c r="C66" s="25"/>
       <c r="D66" s="7" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B67" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C67" s="21"/>
+      <c r="C67" s="25"/>
       <c r="D67" s="7" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B68" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="C68" s="21"/>
+      <c r="C68" s="25"/>
       <c r="D68" s="7" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B69" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="C69" s="21"/>
+      <c r="C69" s="25"/>
       <c r="D69" s="7" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="20" t="s">
         <v>141</v>
       </c>
       <c r="B70" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="25" t="s">
         <v>141</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="20" t="s">
         <v>141</v>
       </c>
       <c r="B71" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C71" s="21"/>
+      <c r="C71" s="25"/>
       <c r="D71" s="7" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="20" t="s">
         <v>141</v>
       </c>
       <c r="B72" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="C72" s="21"/>
+      <c r="C72" s="25"/>
       <c r="D72" s="7" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="20" t="s">
         <v>141</v>
       </c>
       <c r="B73" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C73" s="21"/>
+      <c r="C73" s="25"/>
       <c r="D73" s="7" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="20" t="s">
         <v>141</v>
       </c>
       <c r="B74" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="C74" s="21"/>
+      <c r="C74" s="25"/>
       <c r="D74" s="7" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="20" t="s">
         <v>141</v>
       </c>
       <c r="B75" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="C75" s="21"/>
+      <c r="C75" s="25"/>
       <c r="D75" s="7" t="s">
         <v>153</v>
       </c>
+      <c r="F75">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C2:C6"/>
     <mergeCell ref="C70:C75"/>
     <mergeCell ref="C7:C11"/>
     <mergeCell ref="C12:C16"/>
@@ -3984,6 +4481,12 @@
     <mergeCell ref="C27:C31"/>
     <mergeCell ref="C54:C69"/>
     <mergeCell ref="C50:C53"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C2:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3993,10 +4496,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6868277-4CF8-425A-B5B8-A8A28DDC2FA8}">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="M56" sqref="M56"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4007,7 +4510,7 @@
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4017,19 +4520,19 @@
       <c r="C1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="23"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="34"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="25" t="s">
         <v>154</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -4038,67 +4541,82 @@
       <c r="E2" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="39" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="26" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="E3" s="27"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="33"/>
+      <c r="F3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="26" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="E4" s="27"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="33"/>
+      <c r="F4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="26" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="E5" s="27"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="33"/>
+      <c r="F5">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="26" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="E6" s="27"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="33"/>
+      <c r="F6">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="25" t="s">
         <v>157</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -4107,67 +4625,82 @@
       <c r="E7" s="7" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="39" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="26" t="s">
+      <c r="C8" s="25"/>
+      <c r="D8" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="E8" s="27"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="33"/>
+      <c r="F8" s="41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="26" t="s">
+      <c r="C9" s="25"/>
+      <c r="D9" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="E9" s="27"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="33"/>
+      <c r="F9" s="41">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="26" t="s">
+      <c r="C10" s="25"/>
+      <c r="D10" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="E10" s="27"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="33"/>
+      <c r="F10" s="41">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="26" t="s">
+      <c r="C11" s="25"/>
+      <c r="D11" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="E11" s="27"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="33"/>
+      <c r="F11" s="41">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="25" t="s">
         <v>166</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -4176,67 +4709,82 @@
       <c r="E12" s="7" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="39" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="26" t="s">
+      <c r="C13" s="25"/>
+      <c r="D13" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="E13" s="27"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="33"/>
+      <c r="F13" s="41">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="26" t="s">
+      <c r="C14" s="25"/>
+      <c r="D14" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="E14" s="27"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="33"/>
+      <c r="F14" s="41">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="26" t="s">
+      <c r="C15" s="25"/>
+      <c r="D15" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="E15" s="27"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="33"/>
+      <c r="F15" s="41">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="26" t="s">
+      <c r="C16" s="25"/>
+      <c r="D16" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="E16" s="27"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="33"/>
+      <c r="F16" s="41">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="25" t="s">
         <v>222</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -4245,67 +4793,82 @@
       <c r="E17" s="7" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="39" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="26" t="s">
+      <c r="C18" s="25"/>
+      <c r="D18" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="E18" s="27"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="33"/>
+      <c r="F18" s="41">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="26" t="s">
+      <c r="C19" s="25"/>
+      <c r="D19" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="E19" s="27"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="33"/>
+      <c r="F19" s="41">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="26" t="s">
+      <c r="C20" s="25"/>
+      <c r="D20" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="E20" s="27"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="33"/>
+      <c r="F20" s="41">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="26" t="s">
+      <c r="C21" s="25"/>
+      <c r="D21" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="E21" s="27"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="33"/>
+      <c r="F21" s="41">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="25" t="s">
         <v>223</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -4314,67 +4877,82 @@
       <c r="E22" s="7" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="39" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="26" t="s">
+      <c r="C23" s="25"/>
+      <c r="D23" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="E23" s="27"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="33"/>
+      <c r="F23" s="41">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="26" t="s">
+      <c r="C24" s="25"/>
+      <c r="D24" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="E24" s="27"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="33"/>
+      <c r="F24" s="41">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="26" t="s">
+      <c r="C25" s="25"/>
+      <c r="D25" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="E25" s="27"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="33"/>
+      <c r="F25" s="41">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="26" t="s">
+      <c r="C26" s="25"/>
+      <c r="D26" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="E26" s="27"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E26" s="33"/>
+      <c r="F26" s="41">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="25" t="s">
         <v>224</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -4383,67 +4961,82 @@
       <c r="E27" s="7" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="39" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="26" t="s">
+      <c r="C28" s="25"/>
+      <c r="D28" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="E28" s="27"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E28" s="33"/>
+      <c r="F28" s="41">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="26" t="s">
+      <c r="C29" s="25"/>
+      <c r="D29" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="E29" s="27"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E29" s="33"/>
+      <c r="F29" s="41">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="26" t="s">
+      <c r="C30" s="25"/>
+      <c r="D30" s="32" t="s">
         <v>265</v>
       </c>
-      <c r="E30" s="27"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E30" s="33"/>
+      <c r="F30" s="41">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="26" t="s">
+      <c r="C31" s="25"/>
+      <c r="D31" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="E31" s="27"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E31" s="33"/>
+      <c r="F31" s="41">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="25" t="s">
         <v>225</v>
       </c>
       <c r="D32" s="7" t="s">
@@ -4452,67 +5045,82 @@
       <c r="E32" s="7" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="39" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="26" t="s">
+      <c r="C33" s="25"/>
+      <c r="D33" s="32" t="s">
         <v>258</v>
       </c>
-      <c r="E33" s="27"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="33"/>
+      <c r="F33" s="41">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="26" t="s">
+      <c r="C34" s="25"/>
+      <c r="D34" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="E34" s="27"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="33"/>
+      <c r="F34" s="41">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="26" t="s">
+      <c r="C35" s="25"/>
+      <c r="D35" s="32" t="s">
         <v>268</v>
       </c>
-      <c r="E35" s="27"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="33"/>
+      <c r="F35" s="41">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="26" t="s">
+      <c r="C36" s="25"/>
+      <c r="D36" s="32" t="s">
         <v>269</v>
       </c>
-      <c r="E36" s="27"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E36" s="33"/>
+      <c r="F36" s="41">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="25" t="s">
         <v>226</v>
       </c>
       <c r="D37" s="7" t="s">
@@ -4521,67 +5129,82 @@
       <c r="E37" s="7" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="39" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="26" t="s">
+      <c r="C38" s="25"/>
+      <c r="D38" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="E38" s="27"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E38" s="33"/>
+      <c r="F38" s="41">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="26" t="s">
+      <c r="C39" s="25"/>
+      <c r="D39" s="32" t="s">
         <v>270</v>
       </c>
-      <c r="E39" s="27"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E39" s="33"/>
+      <c r="F39" s="41">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="26" t="s">
+      <c r="C40" s="25"/>
+      <c r="D40" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="E40" s="27"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E40" s="33"/>
+      <c r="F40" s="41">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="26" t="s">
+      <c r="C41" s="25"/>
+      <c r="D41" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="E41" s="27"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E41" s="33"/>
+      <c r="F41" s="41">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="25" t="s">
         <v>227</v>
       </c>
       <c r="D42" s="7" t="s">
@@ -4590,67 +5213,82 @@
       <c r="E42" s="7" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="39" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="26" t="s">
+      <c r="C43" s="25"/>
+      <c r="D43" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="E43" s="27"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E43" s="33"/>
+      <c r="F43" s="41">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="26" t="s">
+      <c r="C44" s="25"/>
+      <c r="D44" s="32" t="s">
         <v>273</v>
       </c>
-      <c r="E44" s="27"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E44" s="33"/>
+      <c r="F44" s="41">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="26" t="s">
+      <c r="C45" s="25"/>
+      <c r="D45" s="32" t="s">
         <v>274</v>
       </c>
-      <c r="E45" s="27"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E45" s="33"/>
+      <c r="F45" s="41">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="26" t="s">
+      <c r="C46" s="25"/>
+      <c r="D46" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="E46" s="27"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E46" s="33"/>
+      <c r="F46" s="41">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="25" t="s">
         <v>228</v>
       </c>
       <c r="D47" s="7" t="s">
@@ -4659,67 +5297,82 @@
       <c r="E47" s="7" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" s="39" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="26" t="s">
+      <c r="C48" s="25"/>
+      <c r="D48" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="E48" s="27"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E48" s="33"/>
+      <c r="F48" s="41">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="26" t="s">
+      <c r="C49" s="25"/>
+      <c r="D49" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="E49" s="27"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E49" s="33"/>
+      <c r="F49" s="41">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="C50" s="21"/>
-      <c r="D50" s="26" t="s">
+      <c r="C50" s="25"/>
+      <c r="D50" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="E50" s="27"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E50" s="33"/>
+      <c r="F50" s="41">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="C51" s="21"/>
-      <c r="D51" s="26" t="s">
+      <c r="C51" s="25"/>
+      <c r="D51" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="E51" s="27"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E51" s="33"/>
+      <c r="F51" s="41">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="25" t="s">
         <v>229</v>
       </c>
       <c r="D52" s="7" t="s">
@@ -4728,67 +5381,82 @@
       <c r="E52" s="7" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" s="39" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="C53" s="21"/>
-      <c r="D53" s="26" t="s">
+      <c r="C53" s="25"/>
+      <c r="D53" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="E53" s="27"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E53" s="33"/>
+      <c r="F53" s="41">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C54" s="21"/>
-      <c r="D54" s="26" t="s">
+      <c r="C54" s="25"/>
+      <c r="D54" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="E54" s="27"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E54" s="33"/>
+      <c r="F54" s="41">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C55" s="21"/>
-      <c r="D55" s="26" t="s">
+      <c r="C55" s="25"/>
+      <c r="D55" s="32" t="s">
         <v>280</v>
       </c>
-      <c r="E55" s="27"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E55" s="33"/>
+      <c r="F55" s="41">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C56" s="21"/>
-      <c r="D56" s="26" t="s">
+      <c r="C56" s="25"/>
+      <c r="D56" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="E56" s="27"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E56" s="33"/>
+      <c r="F56" s="41">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="25" t="s">
         <v>230</v>
       </c>
       <c r="D57" s="7" t="s">
@@ -4797,280 +5465,349 @@
       <c r="E57" s="7" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" s="39" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="C58" s="21"/>
-      <c r="D58" s="26" t="s">
+      <c r="C58" s="25"/>
+      <c r="D58" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="E58" s="27"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E58" s="33"/>
+      <c r="F58" s="41">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C59" s="21"/>
-      <c r="D59" s="26" t="s">
+      <c r="C59" s="25"/>
+      <c r="D59" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="E59" s="27"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E59" s="33"/>
+      <c r="F59" s="41">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="C60" s="21"/>
-      <c r="D60" s="26" t="s">
+      <c r="C60" s="25"/>
+      <c r="D60" s="32" t="s">
         <v>283</v>
       </c>
-      <c r="E60" s="27"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E60" s="33"/>
+      <c r="F60" s="41">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="C61" s="21"/>
-      <c r="D61" s="26" t="s">
+      <c r="C61" s="25"/>
+      <c r="D61" s="32" t="s">
         <v>284</v>
       </c>
-      <c r="E61" s="27"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E61" s="33"/>
+      <c r="F61" s="41">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="25" t="s">
         <v>73</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" s="41">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C63" s="21"/>
+      <c r="C63" s="25"/>
       <c r="D63" s="7" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" s="41">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C64" s="21"/>
+      <c r="C64" s="25"/>
       <c r="D64" s="7" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F64" s="41">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C65" s="21"/>
+      <c r="C65" s="25"/>
       <c r="D65" s="7" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F65" s="41">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C66" s="21"/>
+      <c r="C66" s="25"/>
       <c r="D66" s="7" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F66" s="41">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C67" s="21"/>
+      <c r="C67" s="25"/>
       <c r="D67" s="7" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F67" s="41">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C68" s="21"/>
+      <c r="C68" s="25"/>
       <c r="D68" s="7" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F68" s="41">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C69" s="21"/>
+      <c r="C69" s="25"/>
       <c r="D69" s="7" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F69" s="41">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C70" s="21"/>
+      <c r="C70" s="25"/>
       <c r="D70" s="7" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F70" s="41">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C71" s="21"/>
+      <c r="C71" s="25"/>
       <c r="D71" s="7" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F71" s="41">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C72" s="21"/>
+      <c r="C72" s="25"/>
       <c r="D72" s="7" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F72" s="41">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C73" s="21"/>
+      <c r="C73" s="25"/>
       <c r="D73" s="7" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F73" s="41">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C74" s="21"/>
+      <c r="C74" s="25"/>
       <c r="D74" s="7" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F74" s="41">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C75" s="21"/>
+      <c r="C75" s="25"/>
       <c r="D75" s="7" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F75" s="41">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="C76" s="28" t="s">
+      <c r="C76" s="29" t="s">
         <v>302</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F76" s="41">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="C77" s="29"/>
+      <c r="C77" s="30"/>
       <c r="D77" s="7" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F77" s="41">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="C78" s="29"/>
+      <c r="C78" s="30"/>
       <c r="D78" s="7" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F78" s="41">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="C79" s="30"/>
+      <c r="C79" s="31"/>
       <c r="D79" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F79" s="41">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>41</v>
       </c>
@@ -5083,24 +5820,38 @@
       <c r="D80" s="7" t="s">
         <v>402</v>
       </c>
+      <c r="F80" s="41">
+        <v>212</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="C42:C46"/>
-    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D43:E43"/>
     <mergeCell ref="C52:C56"/>
     <mergeCell ref="C57:C61"/>
     <mergeCell ref="C62:C75"/>
@@ -5112,26 +5863,16 @@
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="C17:C21"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
@@ -5143,12 +5884,11 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5157,10 +5897,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B072B69-A098-4A1C-88DB-6579D36F5B4D}">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5168,7 +5908,7 @@
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5178,19 +5918,19 @@
       <c r="C1" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="32"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="24"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="25" t="s">
         <v>154</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -5199,67 +5939,82 @@
       <c r="E2" s="7" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="39" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="31" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="35" t="s">
         <v>309</v>
       </c>
-      <c r="E3" s="31"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="35"/>
+      <c r="F3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="31" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="35" t="s">
         <v>310</v>
       </c>
-      <c r="E4" s="31"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="35"/>
+      <c r="F4">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="31" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="35" t="s">
         <v>311</v>
       </c>
-      <c r="E5" s="31"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="35"/>
+      <c r="F5">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="31" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="E6" s="31"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="35"/>
+      <c r="F6">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="25" t="s">
         <v>157</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -5268,67 +6023,82 @@
       <c r="E7" s="7" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="39" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="31" t="s">
+      <c r="C8" s="25"/>
+      <c r="D8" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="E8" s="31"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="35"/>
+      <c r="F8" s="41">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="31" t="s">
+      <c r="C9" s="25"/>
+      <c r="D9" s="35" t="s">
         <v>316</v>
       </c>
-      <c r="E9" s="31"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="35"/>
+      <c r="F9" s="41">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="31" t="s">
+      <c r="C10" s="25"/>
+      <c r="D10" s="35" t="s">
         <v>317</v>
       </c>
-      <c r="E10" s="31"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="35"/>
+      <c r="F10" s="41">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="31" t="s">
+      <c r="C11" s="25"/>
+      <c r="D11" s="35" t="s">
         <v>318</v>
       </c>
-      <c r="E11" s="31"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="35"/>
+      <c r="F11" s="41">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="25" t="s">
         <v>166</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -5337,67 +6107,82 @@
       <c r="E12" s="7" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="39" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="31" t="s">
+      <c r="C13" s="25"/>
+      <c r="D13" s="35" t="s">
         <v>321</v>
       </c>
-      <c r="E13" s="31"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="35"/>
+      <c r="F13" s="41">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="31" t="s">
+      <c r="C14" s="25"/>
+      <c r="D14" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="E14" s="31"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="35"/>
+      <c r="F14" s="41">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="31" t="s">
+      <c r="C15" s="25"/>
+      <c r="D15" s="35" t="s">
         <v>323</v>
       </c>
-      <c r="E15" s="31"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="35"/>
+      <c r="F15" s="41">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="31" t="s">
+      <c r="C16" s="25"/>
+      <c r="D16" s="35" t="s">
         <v>324</v>
       </c>
-      <c r="E16" s="31"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="35"/>
+      <c r="F16" s="41">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="25" t="s">
         <v>222</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -5406,67 +6191,82 @@
       <c r="E17" s="7" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="41" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="31" t="s">
+      <c r="C18" s="25"/>
+      <c r="D18" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="E18" s="31"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="35"/>
+      <c r="F18" s="41">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="31" t="s">
+      <c r="C19" s="25"/>
+      <c r="D19" s="35" t="s">
         <v>328</v>
       </c>
-      <c r="E19" s="31"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="35"/>
+      <c r="F19" s="41">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="31" t="s">
+      <c r="C20" s="25"/>
+      <c r="D20" s="35" t="s">
         <v>329</v>
       </c>
-      <c r="E20" s="31"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="35"/>
+      <c r="F20" s="41">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="31" t="s">
+      <c r="C21" s="25"/>
+      <c r="D21" s="35" t="s">
         <v>330</v>
       </c>
-      <c r="E21" s="31"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="35"/>
+      <c r="F21" s="41">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="25" t="s">
         <v>223</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -5475,67 +6275,82 @@
       <c r="E22" s="7" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="39" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="31" t="s">
+      <c r="C23" s="25"/>
+      <c r="D23" s="35" t="s">
         <v>333</v>
       </c>
-      <c r="E23" s="31"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="35"/>
+      <c r="F23" s="41">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="31" t="s">
+      <c r="C24" s="25"/>
+      <c r="D24" s="35" t="s">
         <v>334</v>
       </c>
-      <c r="E24" s="31"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="35"/>
+      <c r="F24" s="41">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="31" t="s">
+      <c r="C25" s="25"/>
+      <c r="D25" s="35" t="s">
         <v>335</v>
       </c>
-      <c r="E25" s="31"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="35"/>
+      <c r="F25" s="41">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="31" t="s">
+      <c r="C26" s="25"/>
+      <c r="D26" s="35" t="s">
         <v>336</v>
       </c>
-      <c r="E26" s="31"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E26" s="35"/>
+      <c r="F26" s="41">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="25" t="s">
         <v>224</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -5544,67 +6359,82 @@
       <c r="E27" s="7" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="39" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="31" t="s">
+      <c r="C28" s="25"/>
+      <c r="D28" s="35" t="s">
         <v>339</v>
       </c>
-      <c r="E28" s="31"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E28" s="35"/>
+      <c r="F28" s="41">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="31" t="s">
+      <c r="C29" s="25"/>
+      <c r="D29" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="E29" s="31"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E29" s="35"/>
+      <c r="F29" s="41">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="31" t="s">
+      <c r="C30" s="25"/>
+      <c r="D30" s="35" t="s">
         <v>341</v>
       </c>
-      <c r="E30" s="31"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E30" s="35"/>
+      <c r="F30" s="41">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="31" t="s">
+      <c r="C31" s="25"/>
+      <c r="D31" s="35" t="s">
         <v>342</v>
       </c>
-      <c r="E31" s="31"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E31" s="35"/>
+      <c r="F31" s="41">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="25" t="s">
         <v>225</v>
       </c>
       <c r="D32" s="7" t="s">
@@ -5613,67 +6443,82 @@
       <c r="E32" s="7" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="39" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="31" t="s">
+      <c r="C33" s="25"/>
+      <c r="D33" s="35" t="s">
         <v>345</v>
       </c>
-      <c r="E33" s="31"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="35"/>
+      <c r="F33" s="41">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="31" t="s">
+      <c r="C34" s="25"/>
+      <c r="D34" s="35" t="s">
         <v>346</v>
       </c>
-      <c r="E34" s="31"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="35"/>
+      <c r="F34" s="41">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="31" t="s">
+      <c r="C35" s="25"/>
+      <c r="D35" s="35" t="s">
         <v>347</v>
       </c>
-      <c r="E35" s="31"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="35"/>
+      <c r="F35" s="41">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="31" t="s">
+      <c r="C36" s="25"/>
+      <c r="D36" s="35" t="s">
         <v>348</v>
       </c>
-      <c r="E36" s="31"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E36" s="35"/>
+      <c r="F36" s="41">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="25" t="s">
         <v>226</v>
       </c>
       <c r="D37" s="7" t="s">
@@ -5682,67 +6527,82 @@
       <c r="E37" s="7" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="39" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="31" t="s">
+      <c r="C38" s="25"/>
+      <c r="D38" s="35" t="s">
         <v>351</v>
       </c>
-      <c r="E38" s="31"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E38" s="35"/>
+      <c r="F38" s="41">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="31" t="s">
+      <c r="C39" s="25"/>
+      <c r="D39" s="35" t="s">
         <v>352</v>
       </c>
-      <c r="E39" s="31"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E39" s="35"/>
+      <c r="F39" s="41">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="31" t="s">
+      <c r="C40" s="25"/>
+      <c r="D40" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="E40" s="31"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E40" s="35"/>
+      <c r="F40" s="41">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="31" t="s">
+      <c r="C41" s="25"/>
+      <c r="D41" s="35" t="s">
         <v>354</v>
       </c>
-      <c r="E41" s="31"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E41" s="35"/>
+      <c r="F41" s="41">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="25" t="s">
         <v>227</v>
       </c>
       <c r="D42" s="7" t="s">
@@ -5751,74 +6611,89 @@
       <c r="E42" s="7" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="41" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="31" t="s">
+      <c r="C43" s="25"/>
+      <c r="D43" s="35" t="s">
         <v>357</v>
       </c>
-      <c r="E43" s="31"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E43" s="35"/>
+      <c r="F43" s="41">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="31" t="s">
+      <c r="C44" s="25"/>
+      <c r="D44" s="35" t="s">
         <v>358</v>
       </c>
-      <c r="E44" s="31"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E44" s="35"/>
+      <c r="F44" s="41">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="31" t="s">
+      <c r="C45" s="25"/>
+      <c r="D45" s="35" t="s">
         <v>359</v>
       </c>
-      <c r="E45" s="31"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E45" s="35"/>
+      <c r="F45" s="41">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="31" t="s">
+      <c r="C46" s="25"/>
+      <c r="D46" s="35" t="s">
         <v>360</v>
       </c>
-      <c r="E46" s="31"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E46" s="35"/>
+      <c r="F46" s="41">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="25" t="s">
         <v>228</v>
       </c>
       <c r="D48" s="7" t="s">
@@ -5827,67 +6702,82 @@
       <c r="E48" s="7" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="39" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="31" t="s">
+      <c r="C49" s="25"/>
+      <c r="D49" s="35" t="s">
         <v>363</v>
       </c>
-      <c r="E49" s="31"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E49" s="35"/>
+      <c r="F49" s="41">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C50" s="21"/>
-      <c r="D50" s="31" t="s">
+      <c r="C50" s="25"/>
+      <c r="D50" s="35" t="s">
         <v>364</v>
       </c>
-      <c r="E50" s="31"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E50" s="35"/>
+      <c r="F50" s="41">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="C51" s="21"/>
-      <c r="D51" s="31" t="s">
+      <c r="C51" s="25"/>
+      <c r="D51" s="35" t="s">
         <v>365</v>
       </c>
-      <c r="E51" s="31"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E51" s="35"/>
+      <c r="F51" s="41">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="C52" s="21"/>
-      <c r="D52" s="31" t="s">
+      <c r="C52" s="25"/>
+      <c r="D52" s="35" t="s">
         <v>366</v>
       </c>
-      <c r="E52" s="31"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E52" s="35"/>
+      <c r="F52" s="41">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="25" t="s">
         <v>229</v>
       </c>
       <c r="D53" s="7" t="s">
@@ -5896,67 +6786,82 @@
       <c r="E53" s="7" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" s="39" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="C54" s="21"/>
-      <c r="D54" s="31" t="s">
+      <c r="C54" s="25"/>
+      <c r="D54" s="35" t="s">
         <v>369</v>
       </c>
-      <c r="E54" s="31"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E54" s="35"/>
+      <c r="F54" s="41">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C55" s="21"/>
-      <c r="D55" s="31" t="s">
+      <c r="C55" s="25"/>
+      <c r="D55" s="35" t="s">
         <v>370</v>
       </c>
-      <c r="E55" s="31"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E55" s="35"/>
+      <c r="F55" s="41">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C56" s="21"/>
-      <c r="D56" s="31" t="s">
+      <c r="C56" s="25"/>
+      <c r="D56" s="35" t="s">
         <v>371</v>
       </c>
-      <c r="E56" s="31"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E56" s="35"/>
+      <c r="F56" s="41">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C57" s="21"/>
-      <c r="D57" s="31" t="s">
+      <c r="C57" s="25"/>
+      <c r="D57" s="35" t="s">
         <v>372</v>
       </c>
-      <c r="E57" s="31"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E57" s="35"/>
+      <c r="F57" s="41">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C58" s="25" t="s">
         <v>230</v>
       </c>
       <c r="D58" s="7" t="s">
@@ -5965,311 +6870,383 @@
       <c r="E58" s="7" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" s="39" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="C59" s="21"/>
-      <c r="D59" s="31" t="s">
+      <c r="C59" s="25"/>
+      <c r="D59" s="35" t="s">
         <v>375</v>
       </c>
-      <c r="E59" s="31"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E59" s="35"/>
+      <c r="F59" s="41">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C60" s="21"/>
-      <c r="D60" s="31" t="s">
+      <c r="C60" s="25"/>
+      <c r="D60" s="35" t="s">
         <v>376</v>
       </c>
-      <c r="E60" s="31"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E60" s="35"/>
+      <c r="F60" s="41">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="C61" s="21"/>
-      <c r="D61" s="31" t="s">
+      <c r="C61" s="25"/>
+      <c r="D61" s="35" t="s">
         <v>377</v>
       </c>
-      <c r="E61" s="31"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E61" s="35"/>
+      <c r="F61" s="41">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="C62" s="21"/>
-      <c r="D62" s="31" t="s">
+      <c r="C62" s="25"/>
+      <c r="D62" s="35" t="s">
         <v>378</v>
       </c>
-      <c r="E62" s="31"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E62" s="35"/>
+      <c r="F62" s="41">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="C63" s="25" t="s">
         <v>73</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>381</v>
       </c>
       <c r="E63" s="7"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" s="41">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C64" s="21"/>
+      <c r="C64" s="25"/>
       <c r="D64" s="7" t="s">
         <v>382</v>
       </c>
       <c r="E64" s="7"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64" s="41">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C65" s="21"/>
+      <c r="C65" s="25"/>
       <c r="D65" s="7" t="s">
         <v>383</v>
       </c>
       <c r="E65" s="7"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65" s="41">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C66" s="21"/>
+      <c r="C66" s="25"/>
       <c r="D66" s="7" t="s">
         <v>384</v>
       </c>
       <c r="E66" s="7"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66" s="41">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C67" s="21"/>
+      <c r="C67" s="25"/>
       <c r="D67" s="7" t="s">
         <v>385</v>
       </c>
       <c r="E67" s="7"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67" s="41">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C68" s="21"/>
+      <c r="C68" s="25"/>
       <c r="D68" s="7" t="s">
         <v>386</v>
       </c>
       <c r="E68" s="7"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68" s="41">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C69" s="21"/>
+      <c r="C69" s="25"/>
       <c r="D69" s="7" t="s">
         <v>387</v>
       </c>
       <c r="E69" s="7"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69" s="41">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C70" s="21"/>
+      <c r="C70" s="25"/>
       <c r="D70" s="7" t="s">
         <v>388</v>
       </c>
       <c r="E70" s="7"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70" s="41">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C71" s="21"/>
+      <c r="C71" s="25"/>
       <c r="D71" s="7" t="s">
         <v>389</v>
       </c>
       <c r="E71" s="7"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71" s="41">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C72" s="21"/>
+      <c r="C72" s="25"/>
       <c r="D72" s="7" t="s">
         <v>390</v>
       </c>
       <c r="E72" s="7"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72" s="41">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C73" s="21"/>
+      <c r="C73" s="25"/>
       <c r="D73" s="7" t="s">
         <v>391</v>
       </c>
       <c r="E73" s="7"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73" s="41">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C74" s="21"/>
+      <c r="C74" s="25"/>
       <c r="D74" s="7" t="s">
         <v>392</v>
       </c>
       <c r="E74" s="7"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74" s="41">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C75" s="21"/>
+      <c r="C75" s="25"/>
       <c r="D75" s="7" t="s">
         <v>393</v>
       </c>
       <c r="E75" s="7"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75" s="41">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C76" s="21"/>
+      <c r="C76" s="25"/>
       <c r="D76" s="7" t="s">
         <v>394</v>
       </c>
       <c r="E76" s="7"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76" s="41">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C77" s="21"/>
+      <c r="C77" s="25"/>
       <c r="D77" s="7" t="s">
         <v>395</v>
       </c>
       <c r="E77" s="7"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77" s="41">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C78" s="21"/>
+      <c r="C78" s="25"/>
       <c r="D78" s="7" t="s">
         <v>396</v>
       </c>
       <c r="E78" s="7"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78" s="41">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="C79" s="21" t="s">
+      <c r="C79" s="25" t="s">
         <v>302</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>397</v>
       </c>
       <c r="E79" s="7"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79" s="41">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="C80" s="21"/>
+      <c r="C80" s="25"/>
       <c r="D80" s="7" t="s">
         <v>398</v>
       </c>
       <c r="E80" s="7"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80" s="41">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="C81" s="21"/>
+      <c r="C81" s="25"/>
       <c r="D81" s="7" t="s">
         <v>399</v>
       </c>
       <c r="E81" s="7"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81" s="41">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>41</v>
       </c>
@@ -6283,65 +7260,12 @@
         <v>400</v>
       </c>
       <c r="E82" s="7"/>
+      <c r="F82" s="41">
+        <v>304</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="C42:C46"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
     <mergeCell ref="C63:C78"/>
     <mergeCell ref="C79:C81"/>
     <mergeCell ref="C58:C62"/>
@@ -6349,6 +7273,62 @@
     <mergeCell ref="D60:E60"/>
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="D62:E62"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6357,10 +7337,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A21E43-9D22-486D-8F67-3AC345338328}">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="O62" sqref="O62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6369,7 +7349,7 @@
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -6379,19 +7359,19 @@
       <c r="C1" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="32"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="24"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="25" t="s">
         <v>154</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -6400,67 +7380,82 @@
       <c r="E2" s="7" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="39" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="31" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="35" t="s">
         <v>404</v>
       </c>
-      <c r="E3" s="31"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="35"/>
+      <c r="F3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="31" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="E4" s="31"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="35"/>
+      <c r="F4">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="31" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="35" t="s">
         <v>416</v>
       </c>
-      <c r="E5" s="31"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="35"/>
+      <c r="F5">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="31" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="35" t="s">
         <v>417</v>
       </c>
-      <c r="E6" s="31"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="35"/>
+      <c r="F6">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="25" t="s">
         <v>157</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -6469,67 +7464,82 @@
       <c r="E7" s="7" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="39" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="31" t="s">
+      <c r="C8" s="25"/>
+      <c r="D8" s="35" t="s">
         <v>406</v>
       </c>
-      <c r="E8" s="31"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="35"/>
+      <c r="F8" s="41">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="31" t="s">
+      <c r="C9" s="25"/>
+      <c r="D9" s="35" t="s">
         <v>419</v>
       </c>
-      <c r="E9" s="31"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="35"/>
+      <c r="F9" s="41">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="31" t="s">
+      <c r="C10" s="25"/>
+      <c r="D10" s="35" t="s">
         <v>420</v>
       </c>
-      <c r="E10" s="31"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="35"/>
+      <c r="F10" s="41">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="31" t="s">
+      <c r="C11" s="25"/>
+      <c r="D11" s="35" t="s">
         <v>421</v>
       </c>
-      <c r="E11" s="31"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="35"/>
+      <c r="F11" s="41">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="25" t="s">
         <v>166</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -6538,67 +7548,82 @@
       <c r="E12" s="7" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="39" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="31" t="s">
+      <c r="C13" s="25"/>
+      <c r="D13" s="35" t="s">
         <v>424</v>
       </c>
-      <c r="E13" s="31"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="35"/>
+      <c r="F13" s="41">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="31" t="s">
+      <c r="C14" s="25"/>
+      <c r="D14" s="35" t="s">
         <v>425</v>
       </c>
-      <c r="E14" s="31"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="35"/>
+      <c r="F14" s="41">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="31" t="s">
+      <c r="C15" s="25"/>
+      <c r="D15" s="35" t="s">
         <v>426</v>
       </c>
-      <c r="E15" s="31"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="35"/>
+      <c r="F15" s="41">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="31" t="s">
+      <c r="C16" s="25"/>
+      <c r="D16" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="E16" s="31"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="35"/>
+      <c r="F16" s="41">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="25" t="s">
         <v>222</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -6607,67 +7632,82 @@
       <c r="E17" s="7" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="39" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="31" t="s">
+      <c r="C18" s="25"/>
+      <c r="D18" s="35" t="s">
         <v>430</v>
       </c>
-      <c r="E18" s="31"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="35"/>
+      <c r="F18" s="41">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="31" t="s">
+      <c r="C19" s="25"/>
+      <c r="D19" s="35" t="s">
         <v>431</v>
       </c>
-      <c r="E19" s="31"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="35"/>
+      <c r="F19" s="41">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="31" t="s">
+      <c r="C20" s="25"/>
+      <c r="D20" s="35" t="s">
         <v>432</v>
       </c>
-      <c r="E20" s="31"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="35"/>
+      <c r="F20" s="41">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="31" t="s">
+      <c r="C21" s="25"/>
+      <c r="D21" s="35" t="s">
         <v>433</v>
       </c>
-      <c r="E21" s="31"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="35"/>
+      <c r="F21" s="41">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="25" t="s">
         <v>223</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -6676,67 +7716,82 @@
       <c r="E22" s="7" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="39" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="31" t="s">
+      <c r="C23" s="25"/>
+      <c r="D23" s="35" t="s">
         <v>436</v>
       </c>
-      <c r="E23" s="31"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="35"/>
+      <c r="F23" s="41">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="31" t="s">
+      <c r="C24" s="25"/>
+      <c r="D24" s="35" t="s">
         <v>437</v>
       </c>
-      <c r="E24" s="31"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="35"/>
+      <c r="F24" s="41">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="31" t="s">
+      <c r="C25" s="25"/>
+      <c r="D25" s="35" t="s">
         <v>438</v>
       </c>
-      <c r="E25" s="31"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="35"/>
+      <c r="F25" s="41">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="31" t="s">
+      <c r="C26" s="25"/>
+      <c r="D26" s="35" t="s">
         <v>439</v>
       </c>
-      <c r="E26" s="31"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E26" s="35"/>
+      <c r="F26" s="41">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="25" t="s">
         <v>224</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -6745,67 +7800,82 @@
       <c r="E27" s="7" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="39" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="31" t="s">
+      <c r="C28" s="25"/>
+      <c r="D28" s="35" t="s">
         <v>442</v>
       </c>
-      <c r="E28" s="31"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E28" s="35"/>
+      <c r="F28" s="41">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="31" t="s">
+      <c r="C29" s="25"/>
+      <c r="D29" s="35" t="s">
         <v>443</v>
       </c>
-      <c r="E29" s="31"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E29" s="35"/>
+      <c r="F29" s="41">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="31" t="s">
+      <c r="C30" s="25"/>
+      <c r="D30" s="35" t="s">
         <v>444</v>
       </c>
-      <c r="E30" s="31"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E30" s="35"/>
+      <c r="F30" s="41">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="31" t="s">
+      <c r="C31" s="25"/>
+      <c r="D31" s="35" t="s">
         <v>445</v>
       </c>
-      <c r="E31" s="31"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E31" s="35"/>
+      <c r="F31" s="41">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="25" t="s">
         <v>225</v>
       </c>
       <c r="D32" s="7" t="s">
@@ -6814,67 +7884,82 @@
       <c r="E32" s="7" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="39" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="31" t="s">
+      <c r="C33" s="25"/>
+      <c r="D33" s="35" t="s">
         <v>448</v>
       </c>
-      <c r="E33" s="31"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="35"/>
+      <c r="F33" s="41">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="31" t="s">
+      <c r="C34" s="25"/>
+      <c r="D34" s="35" t="s">
         <v>449</v>
       </c>
-      <c r="E34" s="31"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="35"/>
+      <c r="F34" s="41">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="31" t="s">
+      <c r="C35" s="25"/>
+      <c r="D35" s="35" t="s">
         <v>450</v>
       </c>
-      <c r="E35" s="31"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="35"/>
+      <c r="F35" s="41">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="31" t="s">
+      <c r="C36" s="25"/>
+      <c r="D36" s="35" t="s">
         <v>451</v>
       </c>
-      <c r="E36" s="31"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E36" s="35"/>
+      <c r="F36" s="41">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="25" t="s">
         <v>226</v>
       </c>
       <c r="D37" s="7" t="s">
@@ -6883,67 +7968,82 @@
       <c r="E37" s="7" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="41" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="31" t="s">
+      <c r="C38" s="25"/>
+      <c r="D38" s="35" t="s">
         <v>454</v>
       </c>
-      <c r="E38" s="31"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E38" s="35"/>
+      <c r="F38" s="41">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="31" t="s">
+      <c r="C39" s="25"/>
+      <c r="D39" s="35" t="s">
         <v>455</v>
       </c>
-      <c r="E39" s="31"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E39" s="35"/>
+      <c r="F39" s="41">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="31" t="s">
+      <c r="C40" s="25"/>
+      <c r="D40" s="35" t="s">
         <v>456</v>
       </c>
-      <c r="E40" s="31"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E40" s="35"/>
+      <c r="F40" s="41">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="31" t="s">
+      <c r="C41" s="25"/>
+      <c r="D41" s="35" t="s">
         <v>457</v>
       </c>
-      <c r="E41" s="31"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E41" s="35"/>
+      <c r="F41" s="41">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="25" t="s">
         <v>227</v>
       </c>
       <c r="D42" s="7" t="s">
@@ -6952,460 +8052,565 @@
       <c r="E42" s="7" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="41" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="31" t="s">
+      <c r="C43" s="25"/>
+      <c r="D43" s="35" t="s">
         <v>460</v>
       </c>
-      <c r="E43" s="31"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E43" s="35"/>
+      <c r="F43" s="41">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="31" t="s">
+      <c r="C44" s="25"/>
+      <c r="D44" s="35" t="s">
         <v>461</v>
       </c>
-      <c r="E44" s="31"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E44" s="35"/>
+      <c r="F44" s="41">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="31" t="s">
+      <c r="C45" s="25"/>
+      <c r="D45" s="35" t="s">
         <v>462</v>
       </c>
-      <c r="E45" s="31"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E45" s="35"/>
+      <c r="F45" s="41">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="31" t="s">
+      <c r="C46" s="25"/>
+      <c r="D46" s="35" t="s">
         <v>463</v>
       </c>
-      <c r="E46" s="31"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E46" s="35"/>
+      <c r="F46" s="41">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="25" t="s">
         <v>407</v>
       </c>
-      <c r="D47" s="31" t="s">
+      <c r="D47" s="35" t="s">
         <v>464</v>
       </c>
-      <c r="E47" s="31"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E47" s="35"/>
+      <c r="F47" s="41">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="31" t="s">
+      <c r="C48" s="25"/>
+      <c r="D48" s="35" t="s">
         <v>465</v>
       </c>
-      <c r="E48" s="31"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E48" s="35"/>
+      <c r="F48" s="41">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="31" t="s">
+      <c r="C49" s="25"/>
+      <c r="D49" s="35" t="s">
         <v>466</v>
       </c>
-      <c r="E49" s="31"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E49" s="35"/>
+      <c r="F49" s="41">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="C50" s="21"/>
-      <c r="D50" s="31" t="s">
+      <c r="C50" s="25"/>
+      <c r="D50" s="35" t="s">
         <v>467</v>
       </c>
-      <c r="E50" s="31"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E50" s="35"/>
+      <c r="F50" s="41">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="D51" s="31" t="s">
+      <c r="D51" s="35" t="s">
         <v>468</v>
       </c>
-      <c r="E51" s="31"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E51" s="35"/>
+      <c r="F51" s="41">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C52" s="21"/>
-      <c r="D52" s="31" t="s">
+      <c r="C52" s="25"/>
+      <c r="D52" s="35" t="s">
         <v>469</v>
       </c>
-      <c r="E52" s="31"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E52" s="35"/>
+      <c r="F52" s="41">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C53" s="21"/>
-      <c r="D53" s="31" t="s">
+      <c r="C53" s="25"/>
+      <c r="D53" s="35" t="s">
         <v>470</v>
       </c>
-      <c r="E53" s="31"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E53" s="35"/>
+      <c r="F53" s="41">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C54" s="21"/>
-      <c r="D54" s="31" t="s">
+      <c r="C54" s="25"/>
+      <c r="D54" s="35" t="s">
         <v>471</v>
       </c>
-      <c r="E54" s="31"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E54" s="35"/>
+      <c r="F54" s="41">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="25" t="s">
         <v>409</v>
       </c>
-      <c r="D55" s="31" t="s">
+      <c r="D55" s="35" t="s">
         <v>472</v>
       </c>
-      <c r="E55" s="31"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E55" s="35"/>
+      <c r="F55" s="41">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="C56" s="21"/>
-      <c r="D56" s="31" t="s">
+      <c r="C56" s="25"/>
+      <c r="D56" s="35" t="s">
         <v>473</v>
       </c>
-      <c r="E56" s="31"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E56" s="35"/>
+      <c r="F56" s="41">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="C57" s="21"/>
-      <c r="D57" s="31" t="s">
+      <c r="C57" s="25"/>
+      <c r="D57" s="35" t="s">
         <v>474</v>
       </c>
-      <c r="E57" s="31"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E57" s="35"/>
+      <c r="F57" s="41">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="C58" s="21"/>
-      <c r="D58" s="31" t="s">
+      <c r="C58" s="25"/>
+      <c r="D58" s="35" t="s">
         <v>475</v>
       </c>
-      <c r="E58" s="31"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E58" s="35"/>
+      <c r="F58" s="41">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C59" s="25" t="s">
         <v>73</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>476</v>
       </c>
       <c r="E59" s="7"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" s="41">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C60" s="21"/>
+      <c r="C60" s="25"/>
       <c r="D60" s="7" t="s">
         <v>477</v>
       </c>
       <c r="E60" s="7"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" s="41">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C61" s="21"/>
+      <c r="C61" s="25"/>
       <c r="D61" s="7" t="s">
         <v>478</v>
       </c>
       <c r="E61" s="7"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61" s="41">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C62" s="21"/>
+      <c r="C62" s="25"/>
       <c r="D62" s="7" t="s">
         <v>479</v>
       </c>
       <c r="E62" s="7"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" s="41">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C63" s="21"/>
+      <c r="C63" s="25"/>
       <c r="D63" s="7" t="s">
         <v>480</v>
       </c>
       <c r="E63" s="7"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" s="41">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C64" s="21"/>
+      <c r="C64" s="25"/>
       <c r="D64" s="7" t="s">
         <v>481</v>
       </c>
       <c r="E64" s="7"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64" s="41">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C65" s="21"/>
+      <c r="C65" s="25"/>
       <c r="D65" s="7" t="s">
         <v>482</v>
       </c>
       <c r="E65" s="7"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65" s="41">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C66" s="21"/>
+      <c r="C66" s="25"/>
       <c r="D66" s="7" t="s">
         <v>483</v>
       </c>
       <c r="E66" s="7"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66" s="41">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="21"/>
+      <c r="C67" s="25"/>
       <c r="D67" s="7" t="s">
         <v>484</v>
       </c>
       <c r="E67" s="7"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67" s="41">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C68" s="21"/>
+      <c r="C68" s="25"/>
       <c r="D68" s="7" t="s">
         <v>485</v>
       </c>
       <c r="E68" s="7"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68" s="41">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C69" s="21"/>
+      <c r="C69" s="25"/>
       <c r="D69" s="7" t="s">
         <v>486</v>
       </c>
       <c r="E69" s="7"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69" s="41">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C70" s="21"/>
+      <c r="C70" s="25"/>
       <c r="D70" s="7" t="s">
         <v>487</v>
       </c>
       <c r="E70" s="7"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70" s="41">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C71" s="21"/>
+      <c r="C71" s="25"/>
       <c r="D71" s="7" t="s">
         <v>488</v>
       </c>
       <c r="E71" s="7"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71" s="41">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C72" s="21"/>
+      <c r="C72" s="25"/>
       <c r="D72" s="7" t="s">
         <v>489</v>
       </c>
       <c r="E72" s="7"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72" s="41">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="C73" s="21" t="s">
+      <c r="C73" s="25" t="s">
         <v>302</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>397</v>
+        <v>602</v>
       </c>
       <c r="E73" s="7"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73" s="41">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="C74" s="21"/>
+      <c r="C74" s="25"/>
       <c r="D74" s="7" t="s">
-        <v>398</v>
+        <v>603</v>
       </c>
       <c r="E74" s="7"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74" s="41">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="C75" s="21"/>
+      <c r="C75" s="25"/>
       <c r="D75" s="7" t="s">
-        <v>399</v>
+        <v>604</v>
       </c>
       <c r="E75" s="7"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75" s="41">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B76" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="C76" s="21"/>
+      <c r="C76" s="25"/>
       <c r="D76" s="7" t="s">
-        <v>400</v>
+        <v>605</v>
       </c>
       <c r="E76" s="7"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76" s="41">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
         <v>41</v>
       </c>
@@ -7416,68 +8621,15 @@
         <v>303</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>490</v>
+        <v>606</v>
       </c>
       <c r="E77" s="7"/>
+      <c r="F77" s="41">
+        <v>389</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="C42:C46"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
     <mergeCell ref="C73:C76"/>
     <mergeCell ref="C55:C58"/>
     <mergeCell ref="D55:E55"/>
@@ -7485,6 +8637,62 @@
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="C59:C72"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7493,10 +8701,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F2AD72-D03D-4FBA-9DA6-EF3D1D7854B4}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7507,7 +8715,7 @@
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7521,80 +8729,98 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="25" t="s">
+        <v>490</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="7" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+      <c r="E3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="25" t="s">
+        <v>493</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="7" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+      <c r="E5">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="21"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="7" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+      <c r="E6">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="21"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
+      </c>
+      <c r="E7">
+        <v>395</v>
       </c>
     </row>
   </sheetData>
